--- a/biology/Botanique/Antoine_Risso/Antoine_Risso.xlsx
+++ b/biology/Botanique/Antoine_Risso/Antoine_Risso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Antonio Risso, dit Antoine Risso, né le 8 avril 1777 à Nice (alors dans le comté de Nice du royaume de Sardaigne) et mort le 25 août 1845 à Nice (division de Nice du même royaume), est un  naturaliste niçois (comté de Nice, États de Savoie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très tôt passionné par l'histoire naturelle, il suit les cours de Giovanni Battista Balbis (1765-1831) et entre à douze ans comme apprenti dans une pharmacie.
 Le 1er octobre 1792, au surlendemain de l'entrée des Français dans Nice, Antoine Risso, âgé de 15 ans entre en qualité d'apprenti dans le laboratoire de pharmacie chimique et galénique des citoyens Chartroux père et fils. Il y demeure 7 ans au cours desquels il est d'abord élève puis approuvé. Augustin Balmossiere-Chartroux lui remet un certificat de stage, constatant son habileté, assiduité et probité, qui servira pour l'obtention de l'examen de pharmacie le 4 novembre 1802.
@@ -521,7 +535,7 @@
 Il publie en 1810 une bonne étude de la faune de Nice, Ichthyologie de Nice, étendue en 1826 en une Histoire naturelle de l'Europe méridionale. Il découvre une cinquantaine d'espèces auxquelles il s'attache à donner des noms de Niçois célèbres.
 Il fut membre d'un grand nombre de sociétés savantes internationales : Paris, Turin, Londres, Bâle, Genève, Philadelphie.
 Il repose au cimetière du Château, à Nice.
-Aujourd'hui une école, un collège et un boulevard portent son nom à Nice, ainsi que le dauphin de Risso, les algues du genre Rissoella (famille des Rissoellaceae[1]) ou les mollusques du genre Rissoella (en) de la famille des Rissoellidae.
+Aujourd'hui une école, un collège et un boulevard portent son nom à Nice, ainsi que le dauphin de Risso, les algues du genre Rissoella (famille des Rissoellaceae) ou les mollusques du genre Rissoella (en) de la famille des Rissoellidae.
 </t>
         </is>
       </c>
@@ -552,13 +566,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Imprimés
-A. Risso. Ichthyologie de Nice, ou Histoire naturelle des poissons du département des Alpes Maritimes. Paris. F. Schoell,. Tome 26, 388 p., 11 pl. couleur. 1810. Deuxième édition T.3 1826.
-A. Risso. Mémoire sur l'Histoire  naturelle  des  Orangers,  Bigaradiers,  Limettiers,  Cédratiers, Limoniers  ou Citroniers cultivés  dans  le  département  des Alpes Maritimes. Paris. Annales du Muséum d'Histoire Naturelle. p. 169 à 212. 1813[2]
+          <t>Imprimés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A. Risso. Ichthyologie de Nice, ou Histoire naturelle des poissons du département des Alpes Maritimes. Paris. F. Schoell,. Tome 26, 388 p., 11 pl. couleur. 1810. Deuxième édition T.3 1826.
+A. Risso. Mémoire sur l'Histoire  naturelle  des  Orangers,  Bigaradiers,  Limettiers,  Cédratiers, Limoniers  ou Citroniers cultivés  dans  le  département  des Alpes Maritimes. Paris. Annales du Muséum d'Histoire Naturelle. p. 169 à 212. 1813
 A. Risso. Histoire naturelle des Crustacés de la mer de Nice. Nice chez l"auteur dans Nouveau Bulletin des Sciences, Société philomathique, Paris, 3, 233-234. 1813.
 A. Risso. Observations géologiques sur la presqu'île de Saint-Hospice, aux environs de Nice, département des Alpes-Maritimes. Journal de Physique, de Chimie, d'Histoire naturelle et des Arts, avec planches, 77, pp. 197-209. et Journal des Mines, 34, pp. 81-98. 1813.
 A. Risso. Histoire naturelle des crustacés des environs de Nice. Paris. Librairie grecquelatine-allemande, 175 pp., 3 planches. 1816
-A. Risso et A. Poiteau. Histoire naturelle des Orangers. Nice et Trianon chez les auteurs, Paris ; Impr. de Hérissant Le Doux. 280 pp. 109 gravures colorées. 19 livraisons de 1818 à 1820[3]. Réed. Paris, G. Masson. Augmentée d'un chapitre sur la culture dans le Midi de l'Europe et en Algérie, par M. A. Du Breuil. 1872. -  Paris, 2 vol. commentaires par Bernard Aubert et Joseph Marie Bové, 2000.
+A. Risso et A. Poiteau. Histoire naturelle des Orangers. Nice et Trianon chez les auteurs, Paris ; Impr. de Hérissant Le Doux. 280 pp. 109 gravures colorées. 19 livraisons de 1818 à 1820. Réed. Paris, G. Masson. Augmentée d'un chapitre sur la culture dans le Midi de l'Europe et en Algérie, par M. A. Du Breuil. 1872. -  Paris, 2 vol. commentaires par Bernard Aubert et Joseph Marie Bové, 2000.
 A. Risso. Mémoire sur quelques gastéropodes nouveaux, nudibranches et tectibranches observés dans la Mer de Nice. Paris, Journal de Physique, de Chimie, d'Histoire Naturelle et des Arts pp.368-377.1818.
 A. Risso. Mémoire sur deux nouvelles espèces de poissons du genre Scopelus, observées dans la mer de Nice. Turin. Mémoires de l'Académie royale des sciences de Turin, pp. 262-269.1820.
 A. Risso. Mémoire sur un nouveau genre de poissons, nommé alepocéphale, vivant dans les grandes profondeurs de la mer de Nice. Turin. Mémoires de l'académie royale des Sciences de Turin, n° 25. 1820.
@@ -576,9 +595,43 @@
 A. Risso. Nouveau guide du voyageur dans Nice et Notions sur l'histoire civile et naturelle de cette ville. Nice. Société Typographique. 1841. Réed. Nice, 228 pp.1844.
 A. Risso. Flore de Nice et des principales plantes exotiques naturalisées dans ses environs. Nice. Société Typographique. 1844.
 A. Risso. Catalogue des Céphalopodes observés par M. A Risso, Lucque. Cinquième Congrès scientifique de Lucque.1843
-A. Risso. Mollusques Céphalopodes vivants observés dans le parage méditerranéen du Comté de Nice. Nice. Imprimerie de la Société typographique. 1854.
-Manuscrits
-Nombreux manuscrits inédits. Voir Théodore Monod. Inventaire des manuscrits de Risso conservés à la bibliothèque du Muséum d'Histoire naturelle. 1931[4]
+A. Risso. Mollusques Céphalopodes vivants observés dans le parage méditerranéen du Comté de Nice. Nice. Imprimerie de la Société typographique. 1854.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antoine_Risso</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Risso</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Manuscrits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nombreux manuscrits inédits. Voir Théodore Monod. Inventaire des manuscrits de Risso conservés à la bibliothèque du Muséum d'Histoire naturelle. 1931
 A. Risso. Mémoire sur divers animaux des environs de Nice. Manuscrit envoyé à l'Institut de Paris en 1811. Dans Pleurobranchus auranticus  (1826) t. 4, p. 41, 1826.
 A. Risso. Extrait du Catalogue descriptif et méthodique des mollusques de l'isle de Corse par C. Payraudeau. Paris. Bibliothèque Centrale du Muséum national d'Histoire naturelle de Paris. Systématique p.155. 1826</t>
         </is>
